--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-M1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-M1-EMG_KK01.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Bregma</t>
   </si>
@@ -196,10 +196,6 @@
 _____</t>
   </si>
   <si>
-    <t>(Lambda_Y)-(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
     <t>(Bregma_Z)-0.0 =
  _____</t>
   </si>
@@ -212,14 +208,6 @@
  _____</t>
   </si>
   <si>
-    <t>(Bregma_Y)-(2.0*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Lambda_Y)+(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
     <t>(Bregma_Z)-0.7 =
 _____</t>
   </si>
@@ -237,9 +225,6 @@
     <t>(Bregma_X)+(1.5*adjust_ratio) = _____</t>
   </si>
   <si>
-    <t>(Bregma_Y)+(2.0*adjust_ratio) = _____</t>
-  </si>
-  <si>
     <t>Sex:</t>
   </si>
   <si>
@@ -279,14 +264,28 @@
     <t>0.5/30g mouse</t>
   </si>
   <si>
-    <t xml:space="preserve">(Bregma_X)+(1.1*adjust_ratio) =
-</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)-(2.0*adjust_ratio) =</t>
-  </si>
-  <si>
     <t>0.1mL/30g mouse</t>
+  </si>
+  <si>
+    <t>Genotype:</t>
+  </si>
+  <si>
+    <t>Nuchal</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)+(2.0) = _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)-(2.0) =
+_____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)-(1.5) =
+ _____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)+(1.5) =
+ _____</t>
   </si>
 </sst>
 </file>
@@ -349,6 +348,7 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1008,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,9 +1048,14 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
@@ -1060,10 +1065,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1090,10 +1095,10 @@
     </row>
     <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1110,7 @@
     </row>
     <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1154,13 +1159,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
@@ -1180,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1201,34 +1206,34 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1236,53 +1241,53 @@
         <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="11">
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>17</v>
@@ -1291,30 +1296,26 @@
         <v>4</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="11">
         <v>5</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -1325,7 +1326,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
